--- a/biology/Zoologie/Abelisauroidea/Abelisauroidea.xlsx
+++ b/biology/Zoologie/Abelisauroidea/Abelisauroidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les abélisaures, également connu sous le nom d'Abelisauria ou Abelisauroidea, forment un groupe de dinosaures saurischiens au sein des Neotheropoda. On compte parmi eux des genres tels Abelisaurus, Carnotaurus et Majungasaurus.
-Les abélisaures habitaient l'hémisphère sud lors du Crétacé. Leur origine remonte au moins jusqu'au Jurassique moyen, où ils semblent avoir occupé un territoire plus grand[1]. 
-Lors du Crétacé, le groupe semble s'être éteint en Asie et en Amérique du Nord, possiblement en raison de sa compétition avec les Tyrannosauroidea. Cependant, des descendants d'abélisaures ont vécu sur les continents du sud jusqu'à l'extinction Crétacé-Tertiaire[2].
-En juillet 2016, une empreinte spectaculaire d'abélisaure est découverte en Bolivie. Mesurant 1,2 mètre, elle serait la plus grosse empreinte de dinosaures trouvée dans le monde à ce jour[3].
+Les abélisaures habitaient l'hémisphère sud lors du Crétacé. Leur origine remonte au moins jusqu'au Jurassique moyen, où ils semblent avoir occupé un territoire plus grand. 
+Lors du Crétacé, le groupe semble s'être éteint en Asie et en Amérique du Nord, possiblement en raison de sa compétition avec les Tyrannosauroidea. Cependant, des descendants d'abélisaures ont vécu sur les continents du sud jusqu'à l'extinction Crétacé-Tertiaire.
+En juillet 2016, une empreinte spectaculaire d'abélisaure est découverte en Bolivie. Mesurant 1,2 mètre, elle serait la plus grosse empreinte de dinosaures trouvée dans le monde à ce jour.
 </t>
         </is>
       </c>
@@ -514,17 +526,19 @@
           <t>Classifications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Super-famille des Abelisauroidea
 Berberosaurus
 Betasuchus
 Eoabelisaurus
 Ozraptor
-Node des Abelisauria[4]
+Node des Abelisauria
 Famille des Noasauridae
 Famille des Abelisauridae
-D. Pol et O. Rauhut ont proposé en 2012 le cladogramme suivant[5] pour les Ceratosauria qui montre la position des Abelisauroidea :
+D. Pol et O. Rauhut ont proposé en 2012 le cladogramme suivant pour les Ceratosauria qui montre la position des Abelisauroidea :
 </t>
         </is>
       </c>
